--- a/SuppXLS/Scen_B_RSD_UC.xlsx
+++ b/SuppXLS/Scen_B_RSD_UC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIMES-models\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA986D-421F-433B-92B2-FB4E21BE45FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B703B04-EDA5-4F78-B16D-66171E405F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5F848073-318E-4500-8CF4-BB8DA6112B40}"/>
   </bookViews>
@@ -66130,7 +66130,7 @@
   <dimension ref="B1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L161" sqref="L161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -66201,20 +66201,20 @@
         <v>575</v>
       </c>
       <c r="F6" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B6,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.0701960784313695</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B6,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.67428790394686389</v>
       </c>
       <c r="G6" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B6,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.2748758169934713</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B6,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.69464490995018591</v>
       </c>
       <c r="H6" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B6,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.7865751633986799</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B6,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.73590911130826742</v>
       </c>
       <c r="I6" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B6,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418175</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B6,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.75571592796014742</v>
       </c>
       <c r="J6" s="3">
         <v>5</v>
@@ -66234,20 +66234,20 @@
         <v>575</v>
       </c>
       <c r="F7" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B7,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.0701960784313695</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B7,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.67428790394686389</v>
       </c>
       <c r="G7" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B7,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.2748758169934713</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B7,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.69464490995018591</v>
       </c>
       <c r="H7" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B7,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.7865751633986799</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B7,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.73590911130826742</v>
       </c>
       <c r="I7" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B7,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418175</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B7,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.75571592796014742</v>
       </c>
       <c r="J7" s="3">
         <v>5</v>
@@ -66267,20 +66267,20 @@
         <v>275</v>
       </c>
       <c r="F8" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B8,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.7631764705882329</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B8,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.63809767105207105</v>
       </c>
       <c r="G8" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B8,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.947388235294115</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B8,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.66071656661131661</v>
       </c>
       <c r="H8" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B8,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.4079176470588211</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B8,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.70656567923140901</v>
       </c>
       <c r="I8" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B8,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.6842352941176437</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B8,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7285732532890532</v>
       </c>
       <c r="J8" s="46">
         <v>5</v>
@@ -66300,20 +66300,20 @@
         <v>476</v>
       </c>
       <c r="F9" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B9,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.07019607843137</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B9,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.67428790394686389</v>
       </c>
       <c r="G9" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B9,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B9,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="H9" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B9,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.7865751633986795</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B9,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.73590911130826742</v>
       </c>
       <c r="I9" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B9,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B9,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="J9" s="3">
         <v>5</v>
@@ -66333,20 +66333,20 @@
         <v>478</v>
       </c>
       <c r="F10" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B10,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.9211117823706023</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B10,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.65766458988828602</v>
       </c>
       <c r="G10" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B10,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.213222960607677</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B10,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.68878599080753411</v>
       </c>
       <c r="H10" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B10,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.6027045315903976</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B10,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.72243074855806877</v>
       </c>
       <c r="I10" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B10,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.8948157098274754</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B10,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.74324844241621491</v>
       </c>
       <c r="J10" s="3">
         <v>5</v>
@@ -66366,20 +66366,20 @@
         <v>479</v>
       </c>
       <c r="F11" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B11,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.7720274863098373</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B11,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.63925321630514764</v>
       </c>
       <c r="G11" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B11,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.0492302349408202</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B11,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.67204837845922505</v>
       </c>
       <c r="H11" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B11,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.4188338997821459</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B11,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70750260781498575</v>
       </c>
       <c r="I11" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B11,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.696036648413104</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B11,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.72943991222885995</v>
       </c>
       <c r="J11" s="3">
         <v>5</v>
@@ -66399,20 +66399,20 @@
         <v>480</v>
       </c>
       <c r="F12" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B12,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6184254843078354</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B12,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.61809109864192147</v>
       </c>
       <c r="G12" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B12,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8802680327386181</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B12,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.65281008967447396</v>
       </c>
       <c r="H12" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B12,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.2293914306463245</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B12,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.69034413403398986</v>
       </c>
       <c r="I12" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B12,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.4912339790771219</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B12,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.71356832398144177</v>
       </c>
       <c r="J12" s="3">
         <v>5</v>
@@ -66432,20 +66432,20 @@
         <v>481</v>
       </c>
       <c r="F13" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B13,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.3925401872460665</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B13,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.58203418887979053</v>
       </c>
       <c r="G13" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B13,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6317942059706736</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B13,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.62003108079980973</v>
       </c>
       <c r="H13" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B13,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.9507995642701497</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B13,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.66110880179442488</v>
       </c>
       <c r="I13" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B13,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.1900535829947598</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B13,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.68652564165984331</v>
       </c>
       <c r="J13" s="3">
         <v>5</v>
@@ -66465,20 +66465,20 @@
         <v>477</v>
       </c>
       <c r="F14" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B14,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.1666548901843012</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B14,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.53845902984810956</v>
       </c>
       <c r="G14" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B14,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.3833203792027295</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B14,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.58041729986191748</v>
       </c>
       <c r="H14" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B14,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6722076978939691</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B14,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.62577759176873715</v>
       </c>
       <c r="I14" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B14,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8888731869124005</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B14,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.653844272386082</v>
       </c>
       <c r="J14" s="46">
         <v>5</v>
@@ -66498,20 +66498,20 @@
         <v>476</v>
       </c>
       <c r="F15" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B15,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.07019607843137</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B15,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.67428790394686389</v>
       </c>
       <c r="G15" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B15,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B15,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="H15" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B15,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.7865751633986795</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B15,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.73590911130826742</v>
       </c>
       <c r="I15" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B15,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B15,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="J15" s="128">
         <v>5</v>
@@ -66531,20 +66531,20 @@
         <v>478</v>
       </c>
       <c r="F16" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B16,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.07019607843137</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B16,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.67428790394686389</v>
       </c>
       <c r="G16" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B16,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B16,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="H16" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B16,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.7865751633986795</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B16,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.73590911130826742</v>
       </c>
       <c r="I16" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B16,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B16,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="J16" s="3">
         <v>5</v>
@@ -66564,20 +66564,20 @@
         <v>479</v>
       </c>
       <c r="F17" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B17,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.07019607843137</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B17,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.67428790394686389</v>
       </c>
       <c r="G17" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B17,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B17,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="H17" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B17,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.7865751633986795</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B17,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.73590911130826742</v>
       </c>
       <c r="I17" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B17,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B17,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="J17" s="3">
         <v>5</v>
@@ -66597,20 +66597,20 @@
         <v>480</v>
       </c>
       <c r="F18" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B18,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6184254843078354</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B18,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.61809109864192147</v>
       </c>
       <c r="G18" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B18,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8802680327386181</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B18,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.65281008967447396</v>
       </c>
       <c r="H18" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B18,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.2293914306463245</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B18,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.69034413403398986</v>
       </c>
       <c r="I18" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B18,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.4912339790771219</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B18,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.71356832398144177</v>
       </c>
       <c r="J18" s="3">
         <v>5</v>
@@ -66630,20 +66630,20 @@
         <v>481</v>
       </c>
       <c r="F19" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B19,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.3925401872460665</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B19,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.58203418887979053</v>
       </c>
       <c r="G19" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B19,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6317942059706736</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B19,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.62003108079980973</v>
       </c>
       <c r="H19" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B19,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.9507995642701497</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B19,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.66110880179442488</v>
       </c>
       <c r="I19" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B19,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.1900535829947598</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B19,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.68652564165984331</v>
       </c>
       <c r="J19" s="3">
         <v>5</v>
@@ -66663,20 +66663,20 @@
         <v>477</v>
       </c>
       <c r="F20" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B20,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.1666548901843012</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B20,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.53845902984810956</v>
       </c>
       <c r="G20" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B20,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.3833203792027295</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B20,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.58041729986191748</v>
       </c>
       <c r="H20" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B20,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6722076978939691</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B20,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.62577759176873715</v>
       </c>
       <c r="I20" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B20,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8888731869124005</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B20,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.653844272386082</v>
       </c>
       <c r="J20" s="46">
         <v>5</v>
@@ -66696,20 +66696,20 @@
         <v>139</v>
       </c>
       <c r="F21" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B21,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1491372549019587</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B21,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53469700563837708</v>
       </c>
       <c r="G21" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B21,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3640509803921548</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B21,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57699727785307009</v>
       </c>
       <c r="H21" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B21,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6506026143790815</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B21,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.6227273018689542</v>
       </c>
       <c r="I21" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B21,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8655163398692776</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B21,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65102275422878275</v>
       </c>
       <c r="J21" s="3">
         <v>5</v>
@@ -66729,20 +66729,20 @@
         <v>139</v>
       </c>
       <c r="F22" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B22,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1491372549019587</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B22,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53469700563837708</v>
       </c>
       <c r="G22" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B22,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3640509803921548</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B22,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57699727785307009</v>
       </c>
       <c r="H22" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B22,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6506026143790815</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B22,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.6227273018689542</v>
       </c>
       <c r="I22" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B22,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8655163398692776</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B22,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65102275422878275</v>
       </c>
       <c r="J22" s="3">
         <v>5</v>
@@ -66762,20 +66762,20 @@
         <v>139</v>
       </c>
       <c r="F23" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B23,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1491372549019587</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B23,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53469700563837708</v>
       </c>
       <c r="G23" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B23,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3640509803921548</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B23,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57699727785307009</v>
       </c>
       <c r="H23" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B23,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6506026143790815</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B23,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.6227273018689542</v>
       </c>
       <c r="I23" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B23,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8655163398692776</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B23,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65102275422878275</v>
       </c>
       <c r="J23" s="3">
         <v>5</v>
@@ -66795,20 +66795,20 @@
         <v>139</v>
       </c>
       <c r="F24" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B24,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.83289783901548464</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B24,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.45441585520274497</v>
       </c>
       <c r="G24" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B24,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.0161876229170339</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B24,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.50401441382067746</v>
       </c>
       <c r="H24" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B24,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.2605740014524303</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B24,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.55763447719141468</v>
       </c>
       <c r="I24" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B24,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4438637853539795</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B24,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.59081189140205881</v>
       </c>
       <c r="J24" s="3">
         <v>5</v>
@@ -66828,20 +66828,20 @@
         <v>139</v>
       </c>
       <c r="F25" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B25,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.67477813107224582</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B25,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.40290598411398626</v>
       </c>
       <c r="G25" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B25,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.84225594417947192</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B25,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.45718725828544249</v>
       </c>
       <c r="H25" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B25,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.0655596949891057</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B25,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.51586971684917859</v>
       </c>
       <c r="I25" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B25,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.2330375080963285</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B25,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.55217948808548978</v>
       </c>
       <c r="J25" s="3">
         <v>5</v>
@@ -66861,20 +66861,20 @@
         <v>139</v>
       </c>
       <c r="F26" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B26,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.51665842312901011</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B26,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.34065575692587047</v>
       </c>
       <c r="G26" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B26,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.66832426544190993</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B26,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.40059614265988186</v>
       </c>
       <c r="H26" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B26,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.87054538852577812</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B26,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.46539655966962445</v>
       </c>
       <c r="I26" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B26,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.022211230838681</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B26,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5054918176944031</v>
       </c>
       <c r="J26" s="46">
         <v>5</v>
@@ -66894,20 +66894,20 @@
         <v>476</v>
       </c>
       <c r="F27" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B27,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B27,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="G27" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B27,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.5818954248366088</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B27,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.72081820338302705</v>
       </c>
       <c r="H27" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B27,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B27,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="I27" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B27,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.6052941176470554</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B27,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.78285860263124263</v>
       </c>
       <c r="J27" s="3">
         <v>5</v>
@@ -66927,20 +66927,20 @@
         <v>478</v>
       </c>
       <c r="F28" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B28,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B28,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="G28" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B28,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.5818954248366088</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B28,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.72081820338302705</v>
       </c>
       <c r="H28" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B28,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B28,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="I28" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B28,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.6052941176470554</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B28,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.78285860263124263</v>
       </c>
       <c r="J28" s="3">
         <v>5</v>
@@ -66960,20 +66960,20 @@
         <v>479</v>
       </c>
       <c r="F29" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B29,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B29,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="G29" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B29,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.5818954248366088</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B29,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.72081820338302705</v>
       </c>
       <c r="H29" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B29,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B29,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="I29" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B29,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.6052941176470554</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B29,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.78285860263124263</v>
       </c>
       <c r="J29" s="3">
         <v>5</v>
@@ -66993,20 +66993,20 @@
         <v>480</v>
       </c>
       <c r="F30" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B30,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6184254843078354</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B30,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.61809109864192147</v>
       </c>
       <c r="G30" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B30,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8802680327386181</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B30,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.65281008967447396</v>
       </c>
       <c r="H30" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B30,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.2293914306463245</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B30,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.69034413403398986</v>
       </c>
       <c r="I30" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B30,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.4912339790771219</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B30,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.71356832398144177</v>
       </c>
       <c r="J30" s="3">
         <v>5</v>
@@ -67026,20 +67026,20 @@
         <v>481</v>
       </c>
       <c r="F31" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B31,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.3925401872460665</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B31,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.58203418887979053</v>
       </c>
       <c r="G31" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B31,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6317942059706736</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B31,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.62003108079980973</v>
       </c>
       <c r="H31" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B31,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.9507995642701497</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B31,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.66110880179442488</v>
       </c>
       <c r="I31" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B31,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.1900535829947598</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B31,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.68652564165984331</v>
       </c>
       <c r="J31" s="3">
         <v>5</v>
@@ -67059,20 +67059,20 @@
         <v>477</v>
       </c>
       <c r="F32" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B32,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.1666548901843012</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B32,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.53845902984810956</v>
       </c>
       <c r="G32" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B32,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.3833203792027295</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B32,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.58041729986191748</v>
       </c>
       <c r="H32" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B32,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6722076978939691</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B32,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.62577759176873715</v>
       </c>
       <c r="I32" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B32,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8888731869124005</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B32,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.653844272386082</v>
       </c>
       <c r="J32" s="46">
         <v>5</v>
@@ -67092,20 +67092,20 @@
         <v>476</v>
       </c>
       <c r="F33" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B33,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B33,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="G33" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B33,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.5818954248366088</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B33,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.72081820338302705</v>
       </c>
       <c r="H33" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B33,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B33,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="I33" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B33,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.6052941176470554</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B33,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.78285860263124263</v>
       </c>
       <c r="J33" s="3">
         <v>5</v>
@@ -67125,20 +67125,20 @@
         <v>478</v>
       </c>
       <c r="F34" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B34,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B34,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="G34" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B34,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.5818954248366088</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B34,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.72081820338302705</v>
       </c>
       <c r="H34" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B34,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B34,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="I34" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B34,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.6052941176470554</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B34,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.78285860263124263</v>
       </c>
       <c r="J34" s="3">
         <v>5</v>
@@ -67158,20 +67158,20 @@
         <v>479</v>
       </c>
       <c r="F35" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B35,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3772156862745071</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B35,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.70389809449714913</v>
       </c>
       <c r="G35" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B35,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.5818954248366088</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B35,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.72081820338302705</v>
       </c>
       <c r="H35" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B35,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.0935947712418166</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B35,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7557159279601473</v>
       </c>
       <c r="I35" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B35,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>3.6052941176470554</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B35,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.78285860263124263</v>
       </c>
       <c r="J35" s="3">
         <v>5</v>
@@ -67191,20 +67191,20 @@
         <v>480</v>
       </c>
       <c r="F36" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B36,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6184254843078354</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B36,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.61809109864192147</v>
       </c>
       <c r="G36" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B36,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8802680327386181</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B36,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.65281008967447396</v>
       </c>
       <c r="H36" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B36,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.2293914306463245</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B36,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.69034413403398986</v>
       </c>
       <c r="I36" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B36,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.4912339790771219</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B36,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.71356832398144177</v>
       </c>
       <c r="J36" s="3">
         <v>5</v>
@@ -67224,20 +67224,20 @@
         <v>481</v>
       </c>
       <c r="F37" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B37,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.3925401872460665</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B37,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.58203418887979053</v>
       </c>
       <c r="G37" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B37,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6317942059706736</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B37,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.62003108079980973</v>
       </c>
       <c r="H37" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B37,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.9507995642701497</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B37,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.66110880179442488</v>
       </c>
       <c r="I37" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B37,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.1900535829947598</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B37,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.68652564165984331</v>
       </c>
       <c r="J37" s="3">
         <v>5</v>
@@ -67257,20 +67257,20 @@
         <v>477</v>
       </c>
       <c r="F38" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B38,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.1666548901843012</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B38,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.53845902984810956</v>
       </c>
       <c r="G38" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B38,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.3833203792027295</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B38,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.58041729986191748</v>
       </c>
       <c r="H38" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B38,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.6722076978939691</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B38,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.62577759176873715</v>
       </c>
       <c r="I38" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B38,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8888731869124005</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B38,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.653844272386082</v>
       </c>
       <c r="J38" s="46">
         <v>5</v>
@@ -67290,20 +67290,20 @@
         <v>275</v>
       </c>
       <c r="F39" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B39,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0394941176470565</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B39,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67099788277461014</v>
       </c>
       <c r="G39" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B39,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2237058823529385</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B39,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.68979800375891798</v>
       </c>
       <c r="H39" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B39,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.6842352941176437</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B39,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7285732532890532</v>
       </c>
       <c r="I39" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B39,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1447647058823494</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B39,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7587317807013807</v>
       </c>
       <c r="J39" s="3">
         <v>5</v>
@@ -67323,20 +67323,20 @@
         <v>275</v>
       </c>
       <c r="F40" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B40,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0394941176470565</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B40,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67099788277461014</v>
       </c>
       <c r="G40" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B40,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2237058823529385</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B40,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.68979800375891798</v>
       </c>
       <c r="H40" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B40,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.6842352941176437</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B40,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7285732532890532</v>
       </c>
       <c r="I40" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B40,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1447647058823494</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B40,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7587317807013807</v>
       </c>
       <c r="J40" s="3">
         <v>5</v>
@@ -67356,20 +67356,20 @@
         <v>275</v>
       </c>
       <c r="F41" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B41,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0394941176470565</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B41,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67099788277461014</v>
       </c>
       <c r="G41" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B41,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2237058823529385</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B41,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.68979800375891798</v>
       </c>
       <c r="H41" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B41,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.6842352941176437</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B41,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7285732532890532</v>
       </c>
       <c r="I41" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B41,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1447647058823494</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B41,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7587317807013807</v>
       </c>
       <c r="J41" s="3">
         <v>5</v>
@@ -67389,20 +67389,20 @@
         <v>275</v>
       </c>
       <c r="F42" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B42,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.3565829358770531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B42,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.57565677626880185</v>
       </c>
       <c r="G42" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B42,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.5922412294647557</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B42,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.61423343297163768</v>
       </c>
       <c r="H42" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B42,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.9064522875816978</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B42,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.65593792670443385</v>
       </c>
       <c r="I42" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B42,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.1421105811693919</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B42,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.68174258220160011</v>
       </c>
       <c r="J42" s="3">
         <v>5</v>
@@ -67422,20 +67422,20 @@
         <v>275</v>
       </c>
       <c r="F43" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B43,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.1532861685214595</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B43,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.53559354319976715</v>
       </c>
       <c r="G43" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B43,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.3686147853736053</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B43,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.57781231199978833</v>
       </c>
       <c r="H43" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B43,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.6557196078431349</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B43,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.6234542242160277</v>
       </c>
       <c r="I43" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B43,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.8710482246952806</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B43,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.65169515739982553</v>
       </c>
       <c r="J43" s="3">
         <v>5</v>
@@ -67455,20 +67455,20 @@
         <v>275</v>
       </c>
       <c r="F44" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B44,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>0.94998940116586961</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B44,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.48717669983123246</v>
       </c>
       <c r="G44" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B44,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.144988341282458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B44,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.53379699984657525</v>
       </c>
       <c r="H44" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B44,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.4049869281045719</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B44,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.5841973241874856</v>
       </c>
       <c r="I44" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B44,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.5999858682211605</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B44,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.61538252487342449</v>
       </c>
       <c r="J44" s="46">
         <v>5</v>
@@ -67497,20 +67497,20 @@
         <v>575</v>
       </c>
       <c r="F46" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B46,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>0.35044802867383784</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B46,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.2595050096211281</v>
       </c>
       <c r="G46" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B46,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>0.45048121598300539</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B46,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.31057362964725455</v>
       </c>
       <c r="H46" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B46,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>0.70056418425594402</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B46,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.41195986058148415</v>
       </c>
       <c r="I46" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B46,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>0.70056418425594402</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B46,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.41195986058148415</v>
       </c>
       <c r="J46" s="3">
         <v>5</v>
@@ -67530,20 +67530,20 @@
         <v>139</v>
       </c>
       <c r="F47" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B47,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B47,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="G47" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B47,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5336851188108458E-2</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B47,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>1.5105185210368188E-2</v>
       </c>
       <c r="H47" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B47,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.19039492897916177</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B47,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.15994265797354945</v>
       </c>
       <c r="I47" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B47,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.19039492897916177</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B47,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.15994265797354945</v>
       </c>
       <c r="J47" s="3">
         <v>5</v>
@@ -67563,20 +67563,20 @@
         <v>575</v>
       </c>
       <c r="F48" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B48,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>0.35044802867383784</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B48,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.2595050096211281</v>
       </c>
       <c r="G48" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B48,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>0.39546296296296113</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B48,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.28339194479463781</v>
       </c>
       <c r="H48" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B48,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>0.39546296296296113</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B48,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.28339194479463781</v>
       </c>
       <c r="I48" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B48,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>0.44047789725209241</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B48,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.30578594651980706</v>
       </c>
       <c r="J48" s="3">
         <v>5</v>
@@ -67596,20 +67596,20 @@
         <v>139</v>
       </c>
       <c r="F49" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B49,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B49,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="G49" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B49,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B49,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="H49" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B49,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B49,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="I49" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B49,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>8.3345280764599572E-3</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B49,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>8.2656378854339962E-3</v>
       </c>
       <c r="J49" s="46">
         <v>5</v>
@@ -67638,20 +67638,20 @@
         <v>575</v>
       </c>
       <c r="F51" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B51,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>1.8237868279569889</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B51,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.64586561913970664</v>
       </c>
       <c r="G51" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B51,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.1316889784946231</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B51,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.68068348840928272</v>
       </c>
       <c r="H51" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B51,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3626155913978493</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B51,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7026124536631031</v>
       </c>
       <c r="I51" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B51,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
-        <v>2.3626155913978493</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B51,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Apt*")))</f>
+        <v>0.7026124536631031</v>
       </c>
       <c r="J51" s="3">
         <v>5</v>
@@ -67671,20 +67671,20 @@
         <v>139</v>
       </c>
       <c r="F52" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B52,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.97665077956989199</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B52,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.49409374162815223</v>
       </c>
       <c r="G52" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B52,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1921822849462362</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B52,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.54383355487040386</v>
       </c>
       <c r="H52" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B52,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3538309139784941</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B52,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57516064809014722</v>
       </c>
       <c r="I52" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B52,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3538309139784941</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B52,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57516064809014722</v>
       </c>
       <c r="J52" s="46">
         <v>5</v>
@@ -67713,20 +67713,20 @@
         <v>576</v>
       </c>
       <c r="F54" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B54,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B54,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G54" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B54,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.323480225988714</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B54,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.69911059130718722</v>
       </c>
       <c r="H54" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B54,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994289</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B54,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.7397713222116199</v>
       </c>
       <c r="I54" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B54,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B54,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J54" s="3">
         <v>5</v>
@@ -67746,20 +67746,20 @@
         <v>576</v>
       </c>
       <c r="F55" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B55,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B55,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G55" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B55,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.323480225988714</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B55,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.69911059130718722</v>
       </c>
       <c r="H55" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B55,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994289</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B55,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.7397713222116199</v>
       </c>
       <c r="I55" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B55,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B55,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J55" s="3">
         <v>5</v>
@@ -67779,20 +67779,20 @@
         <v>278</v>
       </c>
       <c r="F56" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B56,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.8041864406779689</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B56,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.64339033043814675</v>
       </c>
       <c r="G56" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B56,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.9911322033898333</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B56,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.6656784347857625</v>
       </c>
       <c r="H56" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B56,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.4584966101694952</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B56,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.71085702467957845</v>
       </c>
       <c r="I56" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B56,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7389152542372917</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B56,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73254274782860995</v>
       </c>
       <c r="J56" s="46">
         <v>5</v>
@@ -67812,20 +67812,20 @@
         <v>518</v>
       </c>
       <c r="F57" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B57,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B57,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G57" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B57,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B57,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H57" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B57,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B57,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I57" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B57,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B57,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J57" s="3">
         <v>5</v>
@@ -67845,20 +67845,20 @@
         <v>519</v>
       </c>
       <c r="F58" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B58,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B58,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G58" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B58,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B58,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H58" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B58,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B58,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I58" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B58,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B58,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J58" s="3">
         <v>5</v>
@@ -67878,20 +67878,20 @@
         <v>520</v>
       </c>
       <c r="F59" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B59,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B59,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G59" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B59,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B59,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H59" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B59,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B59,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I59" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B59,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B59,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J59" s="3">
         <v>5</v>
@@ -67911,20 +67911,20 @@
         <v>521</v>
       </c>
       <c r="F60" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B60,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B60,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G60" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B60,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B60,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H60" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B60,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B60,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I60" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B60,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B60,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J60" s="3">
         <v>5</v>
@@ -67944,20 +67944,20 @@
         <v>522</v>
       </c>
       <c r="F61" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B61,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B61,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G61" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B61,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B61,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H61" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B61,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B61,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I61" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B61,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B61,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J61" s="3">
         <v>5</v>
@@ -67977,20 +67977,20 @@
         <v>523</v>
       </c>
       <c r="F62" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B62,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B62,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G62" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B62,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B62,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H62" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B62,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B62,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I62" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B62,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B62,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J62" s="46">
         <v>5</v>
@@ -68010,20 +68010,20 @@
         <v>518</v>
       </c>
       <c r="F63" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B63,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B63,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G63" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B63,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B63,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H63" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B63,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B63,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I63" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B63,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B63,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J63" s="128">
         <v>5</v>
@@ -68043,20 +68043,20 @@
         <v>519</v>
       </c>
       <c r="F64" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B64,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B64,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G64" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B64,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B64,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H64" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B64,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B64,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I64" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B64,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B64,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J64" s="3">
         <v>5</v>
@@ -68076,20 +68076,20 @@
         <v>520</v>
       </c>
       <c r="F65" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B65,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B65,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G65" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B65,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B65,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H65" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B65,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B65,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I65" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B65,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B65,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J65" s="3">
         <v>5</v>
@@ -68109,20 +68109,20 @@
         <v>521</v>
       </c>
       <c r="F66" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B66,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B66,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G66" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B66,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B66,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H66" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B66,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B66,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I66" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B66,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B66,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J66" s="3">
         <v>5</v>
@@ -68142,20 +68142,20 @@
         <v>522</v>
       </c>
       <c r="F67" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B67,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B67,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G67" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B67,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B67,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H67" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B67,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B67,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I67" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B67,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B67,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J67" s="3">
         <v>5</v>
@@ -68175,20 +68175,20 @@
         <v>523</v>
       </c>
       <c r="F68" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B68,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B68,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G68" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B68,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B68,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="H68" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B68,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.8427740112994284</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B68,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73977132221161979</v>
       </c>
       <c r="I68" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B68,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B68,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="J68" s="46">
         <v>5</v>
@@ -68208,20 +68208,20 @@
         <v>216</v>
       </c>
       <c r="F69" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B69,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B69,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G69" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B69,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3991372881355955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B69,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58318350310952205</v>
       </c>
       <c r="H69" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B69,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.689941807909606</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B69,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62824474601660063</v>
       </c>
       <c r="I69" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B69,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.9080451977401149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B69,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65612639006535567</v>
       </c>
       <c r="J69" s="3">
         <v>5</v>
@@ -68241,20 +68241,20 @@
         <v>216</v>
       </c>
       <c r="F70" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B70,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B70,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G70" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B70,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3991372881355955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B70,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58318350310952205</v>
       </c>
       <c r="H70" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B70,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.689941807909606</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B70,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62824474601660063</v>
       </c>
       <c r="I70" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B70,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.9080451977401149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B70,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65612639006535567</v>
       </c>
       <c r="J70" s="3">
         <v>5</v>
@@ -68274,20 +68274,20 @@
         <v>216</v>
       </c>
       <c r="F71" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B71,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B71,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G71" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B71,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3991372881355955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B71,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58318350310952205</v>
       </c>
       <c r="H71" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B71,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.689941807909606</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B71,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62824474601660063</v>
       </c>
       <c r="I71" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B71,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.9080451977401149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B71,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65612639006535567</v>
       </c>
       <c r="J71" s="3">
         <v>5</v>
@@ -68307,20 +68307,20 @@
         <v>216</v>
       </c>
       <c r="F72" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B72,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B72,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G72" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B72,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3991372881355955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B72,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58318350310952205</v>
       </c>
       <c r="H72" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B72,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.689941807909606</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B72,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62824474601660063</v>
       </c>
       <c r="I72" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B72,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.9080451977401149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B72,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65612639006535567</v>
       </c>
       <c r="J72" s="3">
         <v>5</v>
@@ -68340,20 +68340,20 @@
         <v>216</v>
       </c>
       <c r="F73" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B73,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B73,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G73" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B73,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3991372881355955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B73,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58318350310952205</v>
       </c>
       <c r="H73" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B73,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.689941807909606</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B73,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62824474601660063</v>
       </c>
       <c r="I73" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B73,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.9080451977401149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B73,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65612639006535567</v>
       </c>
       <c r="J73" s="3">
         <v>5</v>
@@ -68373,20 +68373,20 @@
         <v>216</v>
       </c>
       <c r="F74" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B74,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B74,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G74" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B74,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3991372881355955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B74,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58318350310952205</v>
       </c>
       <c r="H74" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B74,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.689941807909606</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B74,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62824474601660063</v>
       </c>
       <c r="I74" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B74,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.9080451977401149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B74,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65612639006535567</v>
       </c>
       <c r="J74" s="46">
         <v>5</v>
@@ -68406,20 +68406,20 @@
         <v>518</v>
       </c>
       <c r="F75" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B75,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B75,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G75" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B75,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4584966101694952</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B75,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.71085702467957845</v>
       </c>
       <c r="H75" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B75,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B75,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="I75" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B75,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B75,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="J75" s="3">
         <v>5</v>
@@ -68439,20 +68439,20 @@
         <v>519</v>
       </c>
       <c r="F76" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B76,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B76,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G76" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B76,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4584966101694952</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B76,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.71085702467957845</v>
       </c>
       <c r="H76" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B76,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B76,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="I76" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B76,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B76,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="J76" s="3">
         <v>5</v>
@@ -68472,20 +68472,20 @@
         <v>520</v>
       </c>
       <c r="F77" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B77,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B77,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G77" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B77,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4584966101694952</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B77,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.71085702467957845</v>
       </c>
       <c r="H77" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B77,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B77,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="I77" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B77,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B77,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="J77" s="3">
         <v>5</v>
@@ -68505,20 +68505,20 @@
         <v>521</v>
       </c>
       <c r="F78" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B78,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B78,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G78" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B78,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4584966101694952</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B78,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.71085702467957845</v>
       </c>
       <c r="H78" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B78,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B78,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="I78" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B78,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B78,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="J78" s="3">
         <v>5</v>
@@ -68538,20 +68538,20 @@
         <v>522</v>
       </c>
       <c r="F79" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B79,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B79,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G79" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B79,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4584966101694952</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B79,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.71085702467957845</v>
       </c>
       <c r="H79" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B79,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B79,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="I79" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B79,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B79,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="J79" s="3">
         <v>5</v>
@@ -68571,20 +68571,20 @@
         <v>523</v>
       </c>
       <c r="F80" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B80,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1157627118644098</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B80,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.67905129739433201</v>
       </c>
       <c r="G80" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B80,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4584966101694952</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B80,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.71085702467957845</v>
       </c>
       <c r="H80" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B80,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B80,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="I80" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B80,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.7077576271186476</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B80,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.73029520789439673</v>
       </c>
       <c r="J80" s="46">
         <v>5</v>
@@ -68604,20 +68604,20 @@
         <v>216</v>
       </c>
       <c r="F81" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B81,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B81,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G81" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B81,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4209476271186463</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B81,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.586938606685112</v>
       </c>
       <c r="H81" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B81,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B81,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="I81" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B81,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B81,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="J81" s="3">
         <v>5</v>
@@ -68637,20 +68637,20 @@
         <v>216</v>
       </c>
       <c r="F82" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B82,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B82,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G82" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B82,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4209476271186463</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B82,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.586938606685112</v>
       </c>
       <c r="H82" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B82,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B82,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="I82" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B82,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B82,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="J82" s="3">
         <v>5</v>
@@ -68670,20 +68670,20 @@
         <v>216</v>
       </c>
       <c r="F83" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B83,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B83,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G83" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B83,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4209476271186463</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B83,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.586938606685112</v>
       </c>
       <c r="H83" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B83,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B83,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="I83" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B83,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B83,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="J83" s="3">
         <v>5</v>
@@ -68703,20 +68703,20 @@
         <v>216</v>
       </c>
       <c r="F84" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B84,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B84,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G84" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B84,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4209476271186463</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B84,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.586938606685112</v>
       </c>
       <c r="H84" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B84,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B84,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="I84" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B84,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B84,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="J84" s="3">
         <v>5</v>
@@ -68736,20 +68736,20 @@
         <v>216</v>
       </c>
       <c r="F85" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B85,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B85,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G85" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B85,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4209476271186463</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B85,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.586938606685112</v>
       </c>
       <c r="H85" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B85,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B85,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="I85" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B85,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B85,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="J85" s="3">
         <v>5</v>
@@ -68769,20 +68769,20 @@
         <v>216</v>
       </c>
       <c r="F86" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B86,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1810338983050865</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B86,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.5415018534204743</v>
       </c>
       <c r="G86" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B86,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4209476271186463</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B86,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.586938606685112</v>
       </c>
       <c r="H86" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B86,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B86,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="I86" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B86,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5954303389830531</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B86,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61470743984913812</v>
       </c>
       <c r="J86" s="46">
         <v>5</v>
@@ -68802,20 +68802,20 @@
         <v>518</v>
       </c>
       <c r="F87" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B87,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B87,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G87" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B87,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B87,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H87" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B87,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B87,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I87" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B87,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B87,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J87" s="3">
         <v>5</v>
@@ -68835,20 +68835,20 @@
         <v>519</v>
       </c>
       <c r="F88" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B88,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B88,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G88" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B88,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B88,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H88" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B88,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B88,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I88" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B88,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B88,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J88" s="3">
         <v>5</v>
@@ -68868,20 +68868,20 @@
         <v>520</v>
       </c>
       <c r="F89" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B89,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B89,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G89" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B89,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B89,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H89" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B89,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B89,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I89" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B89,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B89,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J89" s="3">
         <v>5</v>
@@ -68901,20 +68901,20 @@
         <v>521</v>
       </c>
       <c r="F90" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B90,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B90,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G90" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B90,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B90,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H90" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B90,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B90,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I90" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B90,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B90,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J90" s="3">
         <v>5</v>
@@ -68934,20 +68934,20 @@
         <v>522</v>
       </c>
       <c r="F91" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B91,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B91,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G91" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B91,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B91,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H91" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B91,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B91,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I91" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B91,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B91,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J91" s="3">
         <v>5</v>
@@ -68967,20 +68967,20 @@
         <v>523</v>
       </c>
       <c r="F92" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B92,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B92,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G92" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B92,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B92,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H92" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B92,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B92,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I92" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B92,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B92,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J92" s="46">
         <v>5</v>
@@ -69000,20 +69000,20 @@
         <v>518</v>
       </c>
       <c r="F93" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B93,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B93,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G93" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B93,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B93,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H93" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B93,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B93,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I93" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B93,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B93,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J93" s="3">
         <v>5</v>
@@ -69033,20 +69033,20 @@
         <v>519</v>
       </c>
       <c r="F94" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B94,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B94,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G94" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B94,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B94,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H94" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B94,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B94,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I94" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B94,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B94,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J94" s="3">
         <v>5</v>
@@ -69066,20 +69066,20 @@
         <v>520</v>
       </c>
       <c r="F95" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B95,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B95,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G95" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B95,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B95,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H95" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B95,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B95,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I95" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B95,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B95,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J95" s="3">
         <v>5</v>
@@ -69099,20 +69099,20 @@
         <v>521</v>
       </c>
       <c r="F96" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B96,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B96,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G96" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B96,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B96,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H96" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B96,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B96,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I96" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B96,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B96,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J96" s="3">
         <v>5</v>
@@ -69132,20 +69132,20 @@
         <v>522</v>
       </c>
       <c r="F97" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B97,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B97,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G97" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B97,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B97,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H97" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B97,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B97,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I97" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B97,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B97,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J97" s="3">
         <v>5</v>
@@ -69165,20 +69165,20 @@
         <v>523</v>
       </c>
       <c r="F98" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B98,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.4273389830508512</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B98,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70822845217666552</v>
       </c>
       <c r="G98" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B98,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.6350564971751553</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B98,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.72490111205228547</v>
       </c>
       <c r="H98" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B98,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.1543502824858694</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B98,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.75928847304574842</v>
       </c>
       <c r="I98" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B98,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>3.6736440677966149</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B98,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.78603419826288801</v>
       </c>
       <c r="J98" s="46">
         <v>5</v>
@@ -69198,20 +69198,20 @@
         <v>278</v>
       </c>
       <c r="F99" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B99,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0846050847457658</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B99,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67580939130740614</v>
       </c>
       <c r="G99" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B99,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2715508474576303</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B99,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69433456894698287</v>
       </c>
       <c r="H99" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B99,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7389152542372917</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B99,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73254274782860995</v>
       </c>
       <c r="I99" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B99,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.2062796610169535</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B99,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.76226022029209783</v>
       </c>
       <c r="J99" s="3">
         <v>5</v>
@@ -69231,20 +69231,20 @@
         <v>278</v>
       </c>
       <c r="F100" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B100,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0846050847457658</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B100,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67580939130740614</v>
       </c>
       <c r="G100" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B100,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2715508474576303</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B100,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69433456894698287</v>
       </c>
       <c r="H100" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B100,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7389152542372917</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B100,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73254274782860995</v>
       </c>
       <c r="I100" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B100,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.2062796610169535</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B100,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.76226022029209783</v>
       </c>
       <c r="J100" s="3">
         <v>5</v>
@@ -69264,20 +69264,20 @@
         <v>278</v>
       </c>
       <c r="F101" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B101,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0846050847457658</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B101,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67580939130740614</v>
       </c>
       <c r="G101" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B101,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2715508474576303</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B101,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69433456894698287</v>
       </c>
       <c r="H101" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B101,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7389152542372917</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B101,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73254274782860995</v>
       </c>
       <c r="I101" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B101,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.2062796610169535</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B101,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.76226022029209783</v>
       </c>
       <c r="J101" s="3">
         <v>5</v>
@@ -69297,20 +69297,20 @@
         <v>278</v>
       </c>
       <c r="F102" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B102,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0846050847457658</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B102,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67580939130740614</v>
       </c>
       <c r="G102" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B102,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2715508474576303</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B102,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69433456894698287</v>
       </c>
       <c r="H102" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B102,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7389152542372917</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B102,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73254274782860995</v>
       </c>
       <c r="I102" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B102,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.2062796610169535</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B102,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.76226022029209783</v>
       </c>
       <c r="J102" s="3">
         <v>5</v>
@@ -69330,20 +69330,20 @@
         <v>278</v>
       </c>
       <c r="F103" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B103,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0846050847457658</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B103,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67580939130740614</v>
       </c>
       <c r="G103" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B103,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2715508474576303</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B103,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69433456894698287</v>
       </c>
       <c r="H103" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B103,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7389152542372917</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B103,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73254274782860995</v>
       </c>
       <c r="I103" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B103,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.2062796610169535</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B103,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.76226022029209783</v>
       </c>
       <c r="J103" s="3">
         <v>5</v>
@@ -69363,20 +69363,20 @@
         <v>278</v>
       </c>
       <c r="F104" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B104,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0846050847457658</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B104,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67580939130740614</v>
       </c>
       <c r="G104" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B104,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2715508474576303</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B104,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69433456894698287</v>
       </c>
       <c r="H104" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B104,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7389152542372917</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B104,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73254274782860995</v>
       </c>
       <c r="I104" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B104,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.2062796610169535</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B104,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.76226022029209783</v>
       </c>
       <c r="J104" s="46">
         <v>5</v>
@@ -69405,20 +69405,20 @@
         <v>576</v>
       </c>
       <c r="F106" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B106,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>0.36215686274510106</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B106,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.2658701597812021</v>
       </c>
       <c r="G106" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B106,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>0.46305737109658396</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B106,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.31649980393421984</v>
       </c>
       <c r="H106" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B106,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>0.71530864197531252</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B106,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.41701453864977822</v>
       </c>
       <c r="I106" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B106,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>0.71530864197531252</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B106,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.41701453864977822</v>
       </c>
       <c r="J106" s="3">
         <v>5</v>
@@ -69438,20 +69438,20 @@
         <v>216</v>
       </c>
       <c r="F107" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B107,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B107,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="G107" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B107,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>2.4140159767613856E-2</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B107,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>2.3571148477461779E-2</v>
       </c>
       <c r="H107" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B107,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.20071604938271981</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B107,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.16716362664254103</v>
       </c>
       <c r="I107" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B107,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.20071604938271981</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B107,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.16716362664254103</v>
       </c>
       <c r="J107" s="3">
         <v>5</v>
@@ -69471,20 +69471,20 @@
         <v>576</v>
       </c>
       <c r="F108" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B108,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>0.36215686274510106</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B108,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.2658701597812021</v>
       </c>
       <c r="G108" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B108,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>0.4075620915032665</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B108,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.28955176753019329</v>
       </c>
       <c r="H108" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B108,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>0.4075620915032665</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B108,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.28955176753019329</v>
       </c>
       <c r="I108" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B108,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>0.45296732026143993</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B108,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.31175327479487647</v>
       </c>
       <c r="J108" s="3">
         <v>5</v>
@@ -69504,20 +69504,20 @@
         <v>216</v>
       </c>
       <c r="F109" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B109,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B109,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="G109" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B109,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B109,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="H109" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B109,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B109,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="I109" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B109,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.7077124183003001E-2</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B109,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>1.6790392564104417E-2</v>
       </c>
       <c r="J109" s="46">
         <v>5</v>
@@ -69546,20 +69546,20 @@
         <v>576</v>
       </c>
       <c r="F111" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B111,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>1.8482699999999999</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B111,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.64890968903931157</v>
       </c>
       <c r="G111" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B111,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.1588417647058828</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B111,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.68342827071203138</v>
       </c>
       <c r="H111" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B111,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.3917705882352949</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B111,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70516873886795206</v>
       </c>
       <c r="I111" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B111,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
-        <v>2.3917705882352949</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B111,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Att*")))</f>
+        <v>0.70516873886795206</v>
       </c>
       <c r="J111" s="3">
         <v>5</v>
@@ -69579,20 +69579,20 @@
         <v>216</v>
       </c>
       <c r="F112" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B112,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.99378900000000003</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B112,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.49844241291330227</v>
       </c>
       <c r="G112" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B112,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.211189235294118</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B112,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.54775467244575904</v>
       </c>
       <c r="H112" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B112,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3742394117647061</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B112,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57881248409707431</v>
       </c>
       <c r="I112" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B112,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3742394117647061</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B112,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57881248409707431</v>
       </c>
       <c r="J112" s="46">
         <v>5</v>
@@ -69621,20 +69621,20 @@
         <v>577</v>
       </c>
       <c r="F114" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B114,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B114,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G114" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B114,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.2957693693693755</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B114,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.69658071062437732</v>
       </c>
       <c r="H114" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B114,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333178</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B114,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I114" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B114,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B114,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J114" s="3">
         <v>5</v>
@@ -69654,20 +69654,20 @@
         <v>577</v>
       </c>
       <c r="F115" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B115,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B115,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G115" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B115,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.2957693693693755</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B115,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.69658071062437732</v>
       </c>
       <c r="H115" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B115,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333178</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B115,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I115" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B115,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B115,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J115" s="3">
         <v>5</v>
@@ -69687,20 +69687,20 @@
         <v>280</v>
       </c>
       <c r="F116" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B116,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.7808054054054021</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B116,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.64039195333259424</v>
       </c>
       <c r="G116" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B116,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>1.9661924324324285</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B116,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.6628674562493071</v>
       </c>
       <c r="H116" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B116,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.4296599999999957</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B116,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.70842590810750883</v>
       </c>
       <c r="I116" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B116,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7077405405405357</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B116,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73029396499944566</v>
       </c>
       <c r="J116" s="46">
         <v>5</v>
@@ -69720,20 +69720,20 @@
         <v>537</v>
       </c>
       <c r="F117" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B117,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B117,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G117" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B117,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B117,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H117" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B117,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B117,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I117" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B117,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B117,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J117" s="3">
         <v>5</v>
@@ -69753,20 +69753,20 @@
         <v>539</v>
       </c>
       <c r="F118" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B118,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B118,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G118" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B118,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B118,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H118" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B118,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B118,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I118" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B118,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B118,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J118" s="3">
         <v>5</v>
@@ -69786,20 +69786,20 @@
         <v>541</v>
       </c>
       <c r="F119" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B119,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B119,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G119" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B119,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B119,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H119" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B119,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B119,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I119" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B119,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B119,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J119" s="3">
         <v>5</v>
@@ -69819,20 +69819,20 @@
         <v>543</v>
       </c>
       <c r="F120" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B120,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B120,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G120" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B120,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B120,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H120" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B120,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B120,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I120" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B120,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B120,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J120" s="3">
         <v>5</v>
@@ -69852,20 +69852,20 @@
         <v>545</v>
       </c>
       <c r="F121" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B121,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B121,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G121" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B121,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B121,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H121" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B121,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B121,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I121" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B121,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B121,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J121" s="3">
         <v>5</v>
@@ -69885,20 +69885,20 @@
         <v>547</v>
       </c>
       <c r="F122" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B122,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B122,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G122" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B122,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B122,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H122" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B122,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B122,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I122" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B122,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B122,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J122" s="46">
         <v>5</v>
@@ -69918,20 +69918,20 @@
         <v>537</v>
       </c>
       <c r="F123" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B123,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B123,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G123" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B123,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B123,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H123" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B123,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B123,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I123" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B123,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B123,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J123" s="128">
         <v>5</v>
@@ -69951,20 +69951,20 @@
         <v>539</v>
       </c>
       <c r="F124" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B124,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B124,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G124" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B124,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B124,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H124" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B124,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B124,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I124" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B124,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B124,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J124" s="3">
         <v>5</v>
@@ -69984,20 +69984,20 @@
         <v>541</v>
       </c>
       <c r="F125" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B125,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B125,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G125" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B125,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B125,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H125" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B125,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B125,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I125" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B125,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B125,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J125" s="3">
         <v>5</v>
@@ -70017,20 +70017,20 @@
         <v>543</v>
       </c>
       <c r="F126" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B126,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B126,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G126" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B126,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B126,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H126" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B126,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B126,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I126" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B126,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B126,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J126" s="3">
         <v>5</v>
@@ -70050,20 +70050,20 @@
         <v>545</v>
       </c>
       <c r="F127" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B127,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B127,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G127" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B127,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B127,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H127" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B127,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B127,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I127" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B127,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B127,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J127" s="3">
         <v>5</v>
@@ -70083,20 +70083,20 @@
         <v>547</v>
       </c>
       <c r="F128" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B128,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B128,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G128" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B128,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B128,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="H128" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B128,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.8107333333333182</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B128,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.73758331729675719</v>
       </c>
       <c r="I128" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B128,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B128,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="J128" s="46">
         <v>5</v>
@@ -70116,20 +70116,20 @@
         <v>245</v>
       </c>
       <c r="F129" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B129,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B129,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G129" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B129,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3791335135135103</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B129,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57967890649264264</v>
       </c>
       <c r="H129" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B129,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6675133333333285</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B129,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62511902470965408</v>
       </c>
       <c r="I129" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B129,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8837981981981935</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B129,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65323509785643008</v>
       </c>
       <c r="J129" s="3">
         <v>5</v>
@@ -70149,20 +70149,20 @@
         <v>245</v>
       </c>
       <c r="F130" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B130,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B130,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G130" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B130,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3791335135135103</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B130,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57967890649264264</v>
       </c>
       <c r="H130" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B130,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6675133333333285</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B130,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62511902470965408</v>
       </c>
       <c r="I130" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B130,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8837981981981935</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B130,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65323509785643008</v>
       </c>
       <c r="J130" s="3">
         <v>5</v>
@@ -70182,20 +70182,20 @@
         <v>245</v>
       </c>
       <c r="F131" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B131,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B131,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G131" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B131,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3791335135135103</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B131,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57967890649264264</v>
       </c>
       <c r="H131" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B131,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6675133333333285</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B131,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62511902470965408</v>
       </c>
       <c r="I131" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B131,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8837981981981935</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B131,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65323509785643008</v>
       </c>
       <c r="J131" s="3">
         <v>5</v>
@@ -70215,20 +70215,20 @@
         <v>245</v>
       </c>
       <c r="F132" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B132,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B132,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G132" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B132,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3791335135135103</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B132,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57967890649264264</v>
       </c>
       <c r="H132" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B132,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6675133333333285</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B132,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62511902470965408</v>
       </c>
       <c r="I132" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B132,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8837981981981935</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B132,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65323509785643008</v>
       </c>
       <c r="J132" s="3">
         <v>5</v>
@@ -70248,20 +70248,20 @@
         <v>245</v>
       </c>
       <c r="F133" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B133,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B133,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G133" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B133,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3791335135135103</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B133,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57967890649264264</v>
       </c>
       <c r="H133" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B133,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6675133333333285</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B133,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62511902470965408</v>
       </c>
       <c r="I133" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B133,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8837981981981935</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B133,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65323509785643008</v>
       </c>
       <c r="J133" s="3">
         <v>5</v>
@@ -70281,20 +70281,20 @@
         <v>245</v>
       </c>
       <c r="F134" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B134,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B134,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G134" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B134,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.3791335135135103</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B134,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.57967890649264264</v>
       </c>
       <c r="H134" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B134,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.6675133333333285</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B134,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.62511902470965408</v>
       </c>
       <c r="I134" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B134,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.8837981981981935</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B134,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.65323509785643008</v>
       </c>
       <c r="J134" s="46">
         <v>5</v>
@@ -70314,20 +70314,20 @@
         <v>537</v>
       </c>
       <c r="F135" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B135,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B135,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G135" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B135,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.4296599999999957</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B135,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70842590810750883</v>
       </c>
       <c r="H135" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B135,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B135,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="I135" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B135,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B135,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="J135" s="3">
         <v>5</v>
@@ -70347,20 +70347,20 @@
         <v>539</v>
       </c>
       <c r="F136" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B136,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B136,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G136" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B136,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.4296599999999957</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B136,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70842590810750883</v>
       </c>
       <c r="H136" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B136,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B136,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="I136" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B136,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B136,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="J136" s="3">
         <v>5</v>
@@ -70380,20 +70380,20 @@
         <v>541</v>
       </c>
       <c r="F137" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B137,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B137,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G137" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B137,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.4296599999999957</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B137,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70842590810750883</v>
       </c>
       <c r="H137" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B137,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B137,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="I137" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B137,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B137,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="J137" s="3">
         <v>5</v>
@@ -70413,20 +70413,20 @@
         <v>543</v>
       </c>
       <c r="F138" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B138,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B138,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G138" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B138,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.4296599999999957</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B138,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70842590810750883</v>
       </c>
       <c r="H138" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B138,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B138,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="I138" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B138,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B138,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="J138" s="3">
         <v>5</v>
@@ -70446,20 +70446,20 @@
         <v>545</v>
       </c>
       <c r="F139" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B139,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B139,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G139" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B139,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.4296599999999957</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B139,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70842590810750883</v>
       </c>
       <c r="H139" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B139,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B139,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="I139" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B139,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B139,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="J139" s="3">
         <v>5</v>
@@ -70479,20 +70479,20 @@
         <v>547</v>
       </c>
       <c r="F140" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B140,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.0897837837837798</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B140,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.67635275799933481</v>
       </c>
       <c r="G140" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B140,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.4296599999999957</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B140,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70842590810750883</v>
       </c>
       <c r="H140" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B140,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B140,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="I140" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B140,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.676842702702698</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B140,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72802752773053347</v>
       </c>
       <c r="J140" s="46">
         <v>5</v>
@@ -70512,20 +70512,20 @@
         <v>245</v>
       </c>
       <c r="F141" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B141,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B141,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G141" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B141,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4007619999999972</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B141,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58346558301072693</v>
       </c>
       <c r="H141" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B141,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B141,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="I141" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B141,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B141,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="J141" s="3">
         <v>5</v>
@@ -70545,20 +70545,20 @@
         <v>245</v>
       </c>
       <c r="F142" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B142,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B142,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G142" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B142,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4007619999999972</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B142,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58346558301072693</v>
       </c>
       <c r="H142" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B142,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B142,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="I142" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B142,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B142,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="J142" s="3">
         <v>5</v>
@@ -70578,20 +70578,20 @@
         <v>245</v>
       </c>
       <c r="F143" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B143,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B143,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G143" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B143,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4007619999999972</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B143,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58346558301072693</v>
       </c>
       <c r="H143" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B143,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B143,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="I143" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B143,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B143,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="J143" s="3">
         <v>5</v>
@@ -70611,20 +70611,20 @@
         <v>245</v>
       </c>
       <c r="F144" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B144,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B144,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G144" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B144,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4007619999999972</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B144,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58346558301072693</v>
       </c>
       <c r="H144" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B144,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B144,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="I144" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B144,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B144,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="J144" s="3">
         <v>5</v>
@@ -70644,20 +70644,20 @@
         <v>245</v>
       </c>
       <c r="F145" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B145,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B145,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G145" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B145,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4007619999999972</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B145,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58346558301072693</v>
       </c>
       <c r="H145" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B145,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B145,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="I145" s="127">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B145,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B145,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="J145" s="3">
         <v>5</v>
@@ -70677,20 +70677,20 @@
         <v>245</v>
       </c>
       <c r="F146" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B146,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.1628486486486458</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B146,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.53764679714190677</v>
       </c>
       <c r="G146" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B146,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4007619999999972</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B146,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58346558301072693</v>
       </c>
       <c r="H146" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B146,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B146,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="I146" s="131">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B146,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.5737898918918884</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B146,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.61146789675790492</v>
       </c>
       <c r="J146" s="46">
         <v>5</v>
@@ -70710,20 +70710,20 @@
         <v>537</v>
       </c>
       <c r="F147" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B147,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B147,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G147" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B147,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B147,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H147" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B147,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B147,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I147" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B147,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B147,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J147" s="3">
         <v>5</v>
@@ -70743,20 +70743,20 @@
         <v>539</v>
       </c>
       <c r="F148" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B148,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B148,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G148" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B148,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B148,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H148" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B148,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B148,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I148" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B148,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B148,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J148" s="3">
         <v>5</v>
@@ -70776,20 +70776,20 @@
         <v>541</v>
       </c>
       <c r="F149" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B149,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B149,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G149" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B149,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B149,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H149" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B149,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B149,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I149" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B149,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B149,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J149" s="3">
         <v>5</v>
@@ -70809,20 +70809,20 @@
         <v>543</v>
       </c>
       <c r="F150" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B150,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B150,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G150" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B150,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B150,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H150" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B150,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B150,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I150" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B150,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B150,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J150" s="3">
         <v>5</v>
@@ -70842,20 +70842,20 @@
         <v>545</v>
       </c>
       <c r="F151" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B151,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B151,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G151" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B151,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B151,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H151" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B151,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B151,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I151" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B151,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B151,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J151" s="3">
         <v>5</v>
@@ -70875,20 +70875,20 @@
         <v>547</v>
       </c>
       <c r="F152" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B152,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B152,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G152" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B152,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B152,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H152" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B152,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B152,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I152" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B152,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B152,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J152" s="46">
         <v>5</v>
@@ -70908,20 +70908,20 @@
         <v>537</v>
       </c>
       <c r="F153" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B153,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B153,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G153" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B153,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B153,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H153" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B153,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B153,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I153" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B153,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B153,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J153" s="3">
         <v>5</v>
@@ -70941,20 +70941,20 @@
         <v>539</v>
       </c>
       <c r="F154" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B154,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B154,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G154" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B154,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B154,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H154" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B154,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B154,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I154" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B154,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B154,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J154" s="3">
         <v>5</v>
@@ -70974,20 +70974,20 @@
         <v>541</v>
       </c>
       <c r="F155" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B155,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B155,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G155" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B155,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B155,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H155" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B155,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B155,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I155" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B155,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B155,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J155" s="3">
         <v>5</v>
@@ -71007,20 +71007,20 @@
         <v>543</v>
       </c>
       <c r="F156" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B156,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B156,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G156" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B156,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B156,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H156" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B156,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B156,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I156" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B156,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B156,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J156" s="3">
         <v>5</v>
@@ -71040,20 +71040,20 @@
         <v>545</v>
       </c>
       <c r="F157" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B157,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B157,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G157" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B157,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B157,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H157" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B157,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B157,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I157" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B157,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B157,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J157" s="3">
         <v>5</v>
@@ -71073,20 +71073,20 @@
         <v>547</v>
       </c>
       <c r="F158" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B158,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.398762162162158</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B158,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70577523454484981</v>
       </c>
       <c r="G158" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B158,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.6047477477477536</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B158,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.72258807828514493</v>
       </c>
       <c r="H158" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B158,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.1197117117116955</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B158,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.75726456849950041</v>
       </c>
       <c r="I158" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B158,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>3.6346756756756697</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B158,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.7842351719995565</v>
       </c>
       <c r="J158" s="46">
         <v>5</v>
@@ -71106,20 +71106,20 @@
         <v>280</v>
       </c>
       <c r="F159" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B159,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0588859459459421</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B159,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67308359393872208</v>
       </c>
       <c r="G159" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B159,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2442729729729689</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B159,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69176453142793792</v>
       </c>
       <c r="H159" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B159,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7077405405405357</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B159,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73029396499944566</v>
       </c>
       <c r="I159" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B159,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1712081081081029</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B159,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7602613022217295</v>
       </c>
       <c r="J159" s="3">
         <v>5</v>
@@ -71139,20 +71139,20 @@
         <v>280</v>
       </c>
       <c r="F160" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B160,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0588859459459421</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B160,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67308359393872208</v>
       </c>
       <c r="G160" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B160,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2442729729729689</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B160,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69176453142793792</v>
       </c>
       <c r="H160" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B160,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7077405405405357</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B160,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73029396499944566</v>
       </c>
       <c r="I160" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B160,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1712081081081029</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B160,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7602613022217295</v>
       </c>
       <c r="J160" s="3">
         <v>5</v>
@@ -71172,20 +71172,20 @@
         <v>280</v>
       </c>
       <c r="F161" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B161,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0588859459459421</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B161,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67308359393872208</v>
       </c>
       <c r="G161" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B161,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2442729729729689</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B161,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69176453142793792</v>
       </c>
       <c r="H161" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B161,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7077405405405357</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B161,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73029396499944566</v>
       </c>
       <c r="I161" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B161,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1712081081081029</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B161,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7602613022217295</v>
       </c>
       <c r="J161" s="3">
         <v>5</v>
@@ -71205,20 +71205,20 @@
         <v>280</v>
       </c>
       <c r="F162" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B162,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0588859459459421</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B162,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67308359393872208</v>
       </c>
       <c r="G162" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B162,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2442729729729689</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B162,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69176453142793792</v>
       </c>
       <c r="H162" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B162,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7077405405405357</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B162,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73029396499944566</v>
       </c>
       <c r="I162" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B162,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1712081081081029</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B162,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7602613022217295</v>
       </c>
       <c r="J162" s="3">
         <v>5</v>
@@ -71238,20 +71238,20 @@
         <v>280</v>
       </c>
       <c r="F163" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B163,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0588859459459421</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B163,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67308359393872208</v>
       </c>
       <c r="G163" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B163,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2442729729729689</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B163,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69176453142793792</v>
       </c>
       <c r="H163" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B163,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7077405405405357</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B163,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73029396499944566</v>
       </c>
       <c r="I163" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B163,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1712081081081029</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B163,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7602613022217295</v>
       </c>
       <c r="J163" s="3">
         <v>5</v>
@@ -71271,20 +71271,20 @@
         <v>280</v>
       </c>
       <c r="F164" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B164,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.0588859459459421</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B164,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.67308359393872208</v>
       </c>
       <c r="G164" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B164,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.2442729729729689</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B164,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.69176453142793792</v>
       </c>
       <c r="H164" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B164,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>2.7077405405405357</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B164,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.73029396499944566</v>
       </c>
       <c r="I164" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B164,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
-        <v>3.1712081081081029</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B164,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSC*")))</f>
+        <v>0.7602613022217295</v>
       </c>
       <c r="J164" s="46">
         <v>5</v>
@@ -71313,20 +71313,20 @@
         <v>577</v>
       </c>
       <c r="F166" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B166,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>0.37881263616557947</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B166,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.27473829745210465</v>
       </c>
       <c r="G166" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B166,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>0.48094690551117214</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B166,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.32475634590368097</v>
       </c>
       <c r="H166" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B166,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>0.73628257887517434</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B166,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.42405688327078905</v>
       </c>
       <c r="I166" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B166,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>0.73628257887517434</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B166,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.42405688327078905</v>
       </c>
       <c r="J166" s="3">
         <v>5</v>
@@ -71346,20 +71346,20 @@
         <v>245</v>
       </c>
       <c r="F167" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B167,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B167,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="G167" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B167,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>3.6662833857825428E-2</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B167,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>3.5366208433834534E-2</v>
       </c>
       <c r="H167" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B167,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.21539780521262308</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B167,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.17722411895827073</v>
       </c>
       <c r="I167" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B167,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>0.21539780521262308</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B167,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.17722411895827073</v>
       </c>
       <c r="J167" s="3">
         <v>5</v>
@@ -71379,20 +71379,20 @@
         <v>577</v>
       </c>
       <c r="F168" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B168,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>0.37881263616557947</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B168,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.27473829745210465</v>
       </c>
       <c r="G168" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B168,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>0.42477305737109439</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B168,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.29813383624397005</v>
       </c>
       <c r="H168" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B168,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>0.42477305737109439</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B168,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.29813383624397005</v>
       </c>
       <c r="I168" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B168,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>0.47073347857661685</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B168,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.32006715386134754</v>
       </c>
       <c r="J168" s="3">
         <v>5</v>
@@ -71412,20 +71412,20 @@
         <v>245</v>
       </c>
       <c r="F169" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B169,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B169,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="G169" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B169,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B169,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="H169" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B169,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B169,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
         <v>0</v>
       </c>
       <c r="I169" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B169,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>2.951343500362702E-2</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B169,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>2.8667362659063333E-2</v>
       </c>
       <c r="J169" s="46">
         <v>5</v>
@@ -71454,20 +71454,20 @@
         <v>577</v>
       </c>
       <c r="F171" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B171,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>1.8830972222222209</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B171,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.65315078787761993</v>
       </c>
       <c r="G171" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B171,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.1974665032679721</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B171,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.68725239217425749</v>
       </c>
       <c r="H171" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B171,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.433243464052286</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B171,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70873023994060369</v>
       </c>
       <c r="I171" s="84">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B171,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
-        <v>2.433243464052286</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B171,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDSH_Det*")))</f>
+        <v>0.70873023994060369</v>
       </c>
       <c r="J171" s="3">
         <v>5</v>
@@ -71487,20 +71487,20 @@
         <v>245</v>
       </c>
       <c r="F172" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B172,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.0181680555555546</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B172,COP!$G$2:$G$1000,'Ambient Heat'!F$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.50450112553945692</v>
       </c>
       <c r="G172" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B172,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.2382265522875806</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B172,COP!$G$2:$G$1000,'Ambient Heat'!G$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.55321770310608209</v>
       </c>
       <c r="H172" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B172,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4032704248366001</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B172,COP!$G$2:$G$1000,'Ambient Heat'!H$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58390034277229097</v>
       </c>
       <c r="I172" s="129">
-        <f>MAX(0,-1+(AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B172,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
-        <v>1.4032704248366001</v>
+        <f>MAX(0,1-(1/AVERAGEIFS(COP!$L$2:$L$1000,COP!$C$2:$C$1000,'Ambient Heat'!$B172,COP!$G$2:$G$1000,'Ambient Heat'!I$4,COP!$D$2:$D$1000,"RSDWH*")))</f>
+        <v>0.58390034277229097</v>
       </c>
       <c r="J172" s="46">
         <v>5</v>
@@ -78200,21 +78200,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D35AAEA1B2FCB4388BD96CEDC55F277" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3dbe2424fad29e82dbed878f9c5e39b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8" xmlns:ns3="5976181e-0ba6-4027-87bb-22a58e318fb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13ef504368312e798a12ea4dafd4e8bd" ns2:_="" ns3:_="">
     <xsd:import namespace="0e3883c7-7fd1-40f0-8067-c70ec1cfb7e8"/>
@@ -78411,24 +78396,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42758C89-CF33-4130-A0A6-B2C8CC23682B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -78445,4 +78428,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478053DF-99EC-45E5-BF37-45C9F8FBB501}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B7CB3A9-2CA1-4A4E-9EDD-514DC96AFA9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>